--- a/docs/cda-logical-model/StructureDefinition-Organizer.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Organizer.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1707" uniqueCount="197">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:52:41+01:00</t>
+    <t>2023-02-07T19:43:49+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -91,7 +91,7 @@
     <t>FHIR Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0-snapshot3</t>
   </si>
   <si>
     <t>Kind</t>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base for all types and resources</t>
@@ -341,7 +345,7 @@
     <t>Organizer.subject.id</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -946,42 +950,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.4921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.4921875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.8984375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.2109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.2109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="62.7265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="62.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="14.21484375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.515625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.30078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="43.4921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.80078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="67.98046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="43.2109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.6796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1125,13 +1129,13 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -1182,13 +1186,13 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>72</v>
@@ -1197,15 +1201,15 @@
         <v>72</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1228,7 +1232,7 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1257,11 +1261,11 @@
         <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y3" s="2"/>
       <c r="Z3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA3" t="s" s="2">
         <v>72</v>
@@ -1279,7 +1283,7 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>73</v>
@@ -1299,10 +1303,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1325,18 +1329,18 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="S4" t="s" s="2">
         <v>72</v>
@@ -1354,11 +1358,11 @@
         <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y4" s="2"/>
       <c r="Z4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>72</v>
@@ -1376,7 +1380,7 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>73</v>
@@ -1396,10 +1400,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1407,10 +1411,10 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>72</v>
@@ -1422,7 +1426,7 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1475,13 +1479,13 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>72</v>
@@ -1495,10 +1499,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1506,7 +1510,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1521,7 +1525,7 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1574,10 +1578,10 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
@@ -1594,10 +1598,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1605,10 +1609,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1620,11 +1624,11 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1675,13 +1679,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1695,10 +1699,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1706,10 +1710,10 @@
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1721,7 +1725,7 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1774,13 +1778,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1794,10 +1798,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1805,7 +1809,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>73</v>
@@ -1820,7 +1824,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1849,11 +1853,11 @@
         <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y9" s="2"/>
       <c r="Z9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>72</v>
@@ -1871,10 +1875,10 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>73</v>
@@ -1891,10 +1895,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1917,7 +1921,7 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
@@ -1946,29 +1950,29 @@
         <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y10" s="2"/>
       <c r="Z10" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AA10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>98</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1988,10 +1992,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1999,7 +2003,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>73</v>
@@ -2014,7 +2018,7 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -2067,10 +2071,10 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>73</v>
@@ -2087,10 +2091,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2098,7 +2102,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>73</v>
@@ -2113,7 +2117,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -2166,10 +2170,10 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>73</v>
@@ -2178,7 +2182,7 @@
         <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>72</v>
@@ -2186,10 +2190,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2197,7 +2201,7 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>73</v>
@@ -2212,13 +2216,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2269,10 +2273,10 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>73</v>
@@ -2284,26 +2288,26 @@
         <v>72</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>72</v>
@@ -2315,16 +2319,16 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2362,42 +2366,42 @@
         <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2420,18 +2424,18 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>72</v>
@@ -2449,11 +2453,11 @@
         <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y15" s="2"/>
       <c r="Z15" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>72</v>
@@ -2471,7 +2475,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -2491,10 +2495,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2517,18 +2521,18 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S16" t="s" s="2">
         <v>72</v>
@@ -2546,11 +2550,11 @@
         <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y16" s="2"/>
       <c r="Z16" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>72</v>
@@ -2568,7 +2572,7 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -2588,10 +2592,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2599,7 +2603,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>73</v>
@@ -2614,7 +2618,7 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2643,11 +2647,11 @@
         <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>72</v>
@@ -2665,10 +2669,10 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>73</v>
@@ -2685,10 +2689,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2711,7 +2715,7 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -2764,7 +2768,7 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
@@ -2784,10 +2788,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2795,10 +2799,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>72</v>
@@ -2810,7 +2814,7 @@
         <v>72</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -2863,13 +2867,13 @@
         <v>72</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>72</v>
@@ -2883,10 +2887,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2894,10 +2898,10 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>72</v>
@@ -2909,7 +2913,7 @@
         <v>72</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -2962,13 +2966,13 @@
         <v>72</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>72</v>
@@ -2982,10 +2986,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2993,10 +2997,10 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>72</v>
@@ -3008,7 +3012,7 @@
         <v>72</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3061,13 +3065,13 @@
         <v>72</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>72</v>
@@ -3081,10 +3085,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3092,10 +3096,10 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>72</v>
@@ -3107,7 +3111,7 @@
         <v>72</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -3160,19 +3164,19 @@
         <v>72</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>72</v>
@@ -3180,10 +3184,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3191,7 +3195,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>73</v>
@@ -3206,13 +3210,13 @@
         <v>72</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3263,10 +3267,10 @@
         <v>72</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>73</v>
@@ -3278,26 +3282,26 @@
         <v>72</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>72</v>
@@ -3309,16 +3313,16 @@
         <v>72</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -3356,42 +3360,42 @@
         <v>72</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3414,18 +3418,18 @@
         <v>72</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="S25" t="s" s="2">
         <v>72</v>
@@ -3443,11 +3447,11 @@
         <v>72</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>72</v>
@@ -3465,7 +3469,7 @@
         <v>72</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>73</v>
@@ -3485,10 +3489,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3511,18 +3515,18 @@
         <v>72</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>72</v>
@@ -3540,11 +3544,11 @@
         <v>72</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>72</v>
@@ -3562,7 +3566,7 @@
         <v>72</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>73</v>
@@ -3582,10 +3586,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -3593,7 +3597,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>73</v>
@@ -3608,7 +3612,7 @@
         <v>72</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -3661,10 +3665,10 @@
         <v>72</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>73</v>
@@ -3681,10 +3685,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -3692,7 +3696,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>73</v>
@@ -3707,7 +3711,7 @@
         <v>72</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
@@ -3760,10 +3764,10 @@
         <v>72</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>73</v>
@@ -3780,10 +3784,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -3791,10 +3795,10 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>72</v>
@@ -3806,7 +3810,7 @@
         <v>72</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
@@ -3859,13 +3863,13 @@
         <v>72</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>72</v>
@@ -3879,10 +3883,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -3890,10 +3894,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>72</v>
@@ -3905,7 +3909,7 @@
         <v>72</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
@@ -3958,19 +3962,19 @@
         <v>72</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>72</v>
@@ -3978,10 +3982,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -3989,7 +3993,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>73</v>
@@ -4004,13 +4008,13 @@
         <v>72</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -4061,10 +4065,10 @@
         <v>72</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>73</v>
@@ -4076,26 +4080,26 @@
         <v>72</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>72</v>
@@ -4107,16 +4111,16 @@
         <v>72</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -4154,42 +4158,42 @@
         <v>72</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4212,7 +4216,7 @@
         <v>72</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
@@ -4265,7 +4269,7 @@
         <v>72</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>73</v>
@@ -4285,10 +4289,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4296,7 +4300,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>73</v>
@@ -4311,7 +4315,7 @@
         <v>72</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
@@ -4364,10 +4368,10 @@
         <v>72</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>73</v>
@@ -4384,10 +4388,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4395,7 +4399,7 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>73</v>
@@ -4410,7 +4414,7 @@
         <v>72</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
@@ -4463,10 +4467,10 @@
         <v>72</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>73</v>
@@ -4483,10 +4487,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -4494,7 +4498,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>73</v>
@@ -4509,7 +4513,7 @@
         <v>72</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
@@ -4562,10 +4566,10 @@
         <v>72</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>73</v>
@@ -4582,10 +4586,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -4593,7 +4597,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>73</v>
@@ -4608,7 +4612,7 @@
         <v>72</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
@@ -4661,10 +4665,10 @@
         <v>72</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>73</v>
@@ -4681,10 +4685,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -4692,7 +4696,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>73</v>
@@ -4707,7 +4711,7 @@
         <v>72</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
@@ -4760,10 +4764,10 @@
         <v>72</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>73</v>
@@ -4780,10 +4784,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -4791,10 +4795,10 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>72</v>
@@ -4806,7 +4810,7 @@
         <v>72</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
@@ -4859,13 +4863,13 @@
         <v>72</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>72</v>
@@ -4879,10 +4883,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -4890,10 +4894,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>72</v>
@@ -4905,7 +4909,7 @@
         <v>72</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
@@ -4958,19 +4962,19 @@
         <v>72</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>72</v>
@@ -4978,10 +4982,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -4989,7 +4993,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>73</v>
@@ -5004,13 +5008,13 @@
         <v>72</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -5061,10 +5065,10 @@
         <v>72</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>73</v>
@@ -5076,26 +5080,26 @@
         <v>72</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>72</v>
@@ -5107,16 +5111,16 @@
         <v>72</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -5154,42 +5158,42 @@
         <v>72</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -5212,60 +5216,60 @@
         <v>72</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>170</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>73</v>
@@ -5285,10 +5289,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5311,14 +5315,14 @@
         <v>72</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
@@ -5364,7 +5368,7 @@
         <v>72</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>73</v>
@@ -5384,10 +5388,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5395,7 +5399,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>73</v>
@@ -5410,7 +5414,7 @@
         <v>72</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
@@ -5463,10 +5467,10 @@
         <v>72</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>73</v>
@@ -5483,10 +5487,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5494,7 +5498,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>73</v>
@@ -5509,7 +5513,7 @@
         <v>72</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
@@ -5562,10 +5566,10 @@
         <v>72</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>73</v>
@@ -5582,10 +5586,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -5593,7 +5597,7 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>73</v>
@@ -5608,7 +5612,7 @@
         <v>72</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
@@ -5661,10 +5665,10 @@
         <v>72</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>73</v>
@@ -5681,10 +5685,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -5692,7 +5696,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>73</v>
@@ -5707,7 +5711,7 @@
         <v>72</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
@@ -5760,10 +5764,10 @@
         <v>72</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>73</v>
@@ -5780,10 +5784,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -5791,7 +5795,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>73</v>
@@ -5806,7 +5810,7 @@
         <v>72</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
@@ -5859,10 +5863,10 @@
         <v>72</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>73</v>
@@ -5879,10 +5883,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -5890,7 +5894,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>73</v>
@@ -5905,7 +5909,7 @@
         <v>72</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
@@ -5958,10 +5962,10 @@
         <v>72</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>73</v>
@@ -5978,10 +5982,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -5989,7 +5993,7 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>73</v>
@@ -6004,7 +6008,7 @@
         <v>72</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
@@ -6057,10 +6061,10 @@
         <v>72</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>73</v>
@@ -6077,10 +6081,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6088,7 +6092,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>73</v>
@@ -6103,7 +6107,7 @@
         <v>72</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
@@ -6156,10 +6160,10 @@
         <v>72</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>73</v>
@@ -6176,10 +6180,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -6187,7 +6191,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>73</v>
@@ -6202,7 +6206,7 @@
         <v>72</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
@@ -6255,10 +6259,10 @@
         <v>72</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>73</v>
@@ -6275,10 +6279,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -6286,7 +6290,7 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>73</v>
@@ -6301,7 +6305,7 @@
         <v>72</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
@@ -6354,10 +6358,10 @@
         <v>72</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>73</v>
@@ -6374,10 +6378,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -6385,7 +6389,7 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>73</v>
@@ -6400,7 +6404,7 @@
         <v>72</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
@@ -6453,10 +6457,10 @@
         <v>72</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>73</v>

--- a/docs/cda-logical-model/StructureDefinition-Organizer.xlsx
+++ b/docs/cda-logical-model/StructureDefinition-Organizer.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-sd-202312-matchbox-patch</t>
+    <t>2.0.0-sd-202406-matchbox-patch</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-12T18:28:21+01:00</t>
+    <t>2024-06-19T17:47:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>HL7 International - Structured Documents (http://www.hl7.org/Special/committees/structure, structdog@lists.HL7.org)</t>
   </si>
   <si>
     <t>Description</t>
@@ -392,7 +392,7 @@
     <t>EVN</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActMood|2.0.0</t>
+    <t>http://hl7.org/cda/stds/core/ValueSet/CDAActMood</t>
   </si>
   <si>
     <t>Organizer.id</t>
